--- a/biology/Médecine/Bioforce_militaire/Bioforce_militaire.xlsx
+++ b/biology/Médecine/Bioforce_militaire/Bioforce_militaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bioforce militaire est une unité militaire française du service de santé des armées destinée à porter secours aux états confrontés à une situation de crise ou de catastrophe épidémiologique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bioforce militaire est une unité militaire française du service de santé des armées destinée à porter secours aux états confrontés à une situation de crise ou de catastrophe épidémiologique.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette unité est créée en 1983 et résulte d'une convention entre le ministère de la Défense, le ministère des Affaires étrangères, le ministère de la Coopération et la fondation Mérieux[2].
-Elle n’est plus active[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette unité est créée en 1983 et résulte d'une convention entre le ministère de la Défense, le ministère des Affaires étrangères, le ministère de la Coopération et la fondation Mérieux.
+Elle n’est plus active.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Opérations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 2000, l'unité Bioforce a effectué seize opérations[4] dont :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 2000, l'unité Bioforce a effectué seize opérations dont :
 1990 : São Tomé (choléra)
 1992 :
 Burundi (épidémie)
